--- a/LCOH modelling/output/longform.xlsx
+++ b/LCOH modelling/output/longform.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,11 +490,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001995</v>
+        <v>1000857</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,19 +511,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13810457.18876349</v>
+        <v>8647084.656692613</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="J2" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="K2" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,11 +531,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1005751</v>
+        <v>1000872</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>GUARDIAN ENERGY LLC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68712.55130582268</v>
+        <v>20755262.91124354</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="J3" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -572,11 +572,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1006354</v>
+        <v>1001143</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -593,16 +593,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4601766.015648505</v>
+        <v>8330363.254163409</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="J4" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -613,11 +613,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1006877</v>
+        <v>1001995</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>SAPPI CLOQUET LLC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -634,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4459643.861231745</v>
+        <v>13814004.12762146</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="J5" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
     </row>
     <row r="6">
@@ -654,11 +654,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1007098</v>
+        <v>1002173</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>GRANITE FALLS ENERGY LLC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -675,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>55948.01333032941</v>
+        <v>9009991.381325858</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="J6" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -695,11 +695,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1007994</v>
+        <v>1002177</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOISE WHITE PAPER LLC</t>
+          <t>DENCO II, LLC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -716,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11692184.6168533</v>
+        <v>4454282.434351836</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="J7" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="K7" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -736,11 +736,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1001995</v>
+        <v>1002950</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>Greenfield Global Winnebago LLC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -750,26 +750,26 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1082094.767914868</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>46848338.18737311</v>
+        <v>8152438.743730606</v>
       </c>
       <c r="H8" t="n">
-        <v>509221067.2540556</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1737534.405064463</v>
+        <v>1093323.784395024</v>
       </c>
       <c r="J8" t="n">
-        <v>116206.8</v>
+        <v>72514.7</v>
       </c>
       <c r="K8" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -777,11 +777,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1005751</v>
+        <v>1003837</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>BUSHMILLS ETHANOL INC.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -791,26 +791,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15808.50555308531</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>684415.2992394582</v>
+        <v>12713551.19139498</v>
       </c>
       <c r="H9" t="n">
-        <v>7439296.730863676</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25383.93411148933</v>
+        <v>1705014.700339238</v>
       </c>
       <c r="J9" t="n">
-        <v>3048.6</v>
+        <v>113085.1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="10">
@@ -818,11 +818,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1006354</v>
+        <v>1003907</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>HEARTLAND CORN PRODUCTS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -832,23 +832,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1122223.259731051</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48585665.83306197</v>
+        <v>22436033.70263509</v>
       </c>
       <c r="H10" t="n">
-        <v>528105063.4028475</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1801969.274561449</v>
+        <v>3008897.09762533</v>
       </c>
       <c r="J10" t="n">
-        <v>221221.2</v>
+        <v>199565.1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -859,11 +859,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1006877</v>
+        <v>1004230</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>POET Biorefining - Preston, LLC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -873,23 +873,23 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1088473.34320962</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>47124492.97660474</v>
+        <v>8733235.655170448</v>
       </c>
       <c r="H11" t="n">
-        <v>512222749.7457036</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1747776.570869665</v>
+        <v>1171214.474180173</v>
       </c>
       <c r="J11" t="n">
-        <v>214266.6</v>
+        <v>77680.8</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,11 +900,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1007098</v>
+        <v>1004731</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -914,23 +914,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12621.11649247921</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>546420.1022626294</v>
+        <v>9810364.849110557</v>
       </c>
       <c r="H12" t="n">
-        <v>5939348.937637277</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20265.89979569555</v>
+        <v>1315668.300037693</v>
       </c>
       <c r="J12" t="n">
-        <v>2451.8</v>
+        <v>87261.70000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -941,11 +941,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1007994</v>
+        <v>1005020</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BOISE WHITE PAPER LLC</t>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -955,26 +955,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>976537.218623517</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>42278317.22981814</v>
+        <v>9252647.064121678</v>
       </c>
       <c r="H13" t="n">
-        <v>459546926.4110668</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1568039.200904636</v>
+        <v>1230559.541256294</v>
       </c>
       <c r="J13" t="n">
-        <v>104000.2</v>
+        <v>81703.7</v>
       </c>
       <c r="K13" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -982,11 +982,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1001995</v>
+        <v>1005149</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>AL CORN CLEAN FUEL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -996,26 +996,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3819158.004405417</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>46848338.18737311</v>
+        <v>21766207.72203879</v>
       </c>
       <c r="H14" t="n">
-        <v>509221067.2540556</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1737534.405064463</v>
+        <v>2919066.716924237</v>
       </c>
       <c r="J14" t="n">
-        <v>116206.8</v>
+        <v>193607.1</v>
       </c>
       <c r="K14" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1023,11 +1023,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1005751</v>
+        <v>1005526</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>Green Plains Fairmont LLC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1037,23 +1037,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>55794.72548147757</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>684415.2992394582</v>
+        <v>17932595.09317916</v>
       </c>
       <c r="H15" t="n">
-        <v>7439296.730863676</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25383.93411148933</v>
+        <v>2404940.82171127</v>
       </c>
       <c r="J15" t="n">
-        <v>3048.6</v>
+        <v>159507.7</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1064,11 +1064,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1006354</v>
+        <v>1005586</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>HIGHWATER ETHANOL LLC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1078,23 +1078,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3960787.975521356</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>48585665.83306197</v>
+        <v>9174985.776949074</v>
       </c>
       <c r="H16" t="n">
-        <v>528105063.4028475</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1801969.274561449</v>
+        <v>1230457.595175273</v>
       </c>
       <c r="J16" t="n">
-        <v>221221.2</v>
+        <v>81610.09999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1105,11 +1105,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1006877</v>
+        <v>1005751</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1119,26 +1119,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3841670.623092777</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>47124492.97660474</v>
+        <v>3992949.477291849</v>
       </c>
       <c r="H17" t="n">
-        <v>512222749.7457036</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1747776.570869665</v>
+        <v>695469.3107668745</v>
       </c>
       <c r="J17" t="n">
-        <v>214266.6</v>
+        <v>64055.59999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5356.100000000006</v>
       </c>
     </row>
     <row r="18">
@@ -1146,11 +1146,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1007098</v>
+        <v>1005929</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>HERON LAKE BIOENERGY LLC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1160,23 +1160,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>44545.11703227958</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>546420.1022626294</v>
+        <v>8905110.43850976</v>
       </c>
       <c r="H18" t="n">
-        <v>5939348.937637277</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20265.89979569555</v>
+        <v>1194264.606106295</v>
       </c>
       <c r="J18" t="n">
-        <v>2451.8</v>
+        <v>79209.59999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1187,11 +1187,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1007994</v>
+        <v>1006354</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BOISE WHITE PAPER LLC</t>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1201,26 +1201,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3446601.948083001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42278317.22981814</v>
+        <v>7944633.866411301</v>
       </c>
       <c r="H19" t="n">
-        <v>459546926.4110668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1568039.200904636</v>
+        <v>2135252.45879036</v>
       </c>
       <c r="J19" t="n">
-        <v>104000.2</v>
+        <v>234600.5</v>
       </c>
       <c r="K19" t="n">
-        <v>219394.2</v>
+        <v>16364.79999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1228,11 +1228,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1001995</v>
+        <v>1006877</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1242,26 +1242,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19095790.02202708</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>37278299.68906974</v>
+        <v>8000331.830517477</v>
       </c>
       <c r="H20" t="n">
-        <v>405198909.6638016</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1737534.405064463</v>
+        <v>2126048.523837243</v>
       </c>
       <c r="J20" t="n">
-        <v>116206.8</v>
+        <v>232044</v>
       </c>
       <c r="K20" t="n">
-        <v>230299.4</v>
+        <v>13719.69999999998</v>
       </c>
     </row>
     <row r="21">
@@ -1269,11 +1269,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1005751</v>
+        <v>1006946</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>VALERO WELCOME PLANT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1283,23 +1283,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>278973.6274073878</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>484813.1843659157</v>
+        <v>21205332.45607757</v>
       </c>
       <c r="H21" t="n">
-        <v>5269708.525716475</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>25383.93411148933</v>
+        <v>2843847.719562759</v>
       </c>
       <c r="J21" t="n">
-        <v>3048.6</v>
+        <v>188618.2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1310,11 +1310,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1006354</v>
+        <v>1006988</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>WestRock MN Corporation</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1324,26 +1324,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>19803939.87760678</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34416196.41355184</v>
+        <v>7046337.721123219</v>
       </c>
       <c r="H22" t="n">
-        <v>374089091.4516504</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1801969.274561449</v>
+        <v>944984.5457972108</v>
       </c>
       <c r="J22" t="n">
-        <v>221221.2</v>
+        <v>62676.10000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
     </row>
     <row r="23">
@@ -1351,11 +1351,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1006877</v>
+        <v>1007098</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1365,26 +1365,26 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>19208353.11546389</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>33381158.38001392</v>
+        <v>6695364.25410319</v>
       </c>
       <c r="H23" t="n">
-        <v>362838678.0436295</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1747776.570869665</v>
+        <v>1022685.496766369</v>
       </c>
       <c r="J23" t="n">
-        <v>214266.6</v>
+        <v>81584.10000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1225.899999999994</v>
       </c>
     </row>
     <row r="24">
@@ -1392,11 +1392,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1007098</v>
+        <v>1007830</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>Poet Bioprocessing-Bingham Lake</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1406,23 +1406,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>222725.5851613979</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>387062.7527962512</v>
+        <v>5987466.288050659</v>
       </c>
       <c r="H24" t="n">
-        <v>4207203.834741861</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20265.89979569555</v>
+        <v>802979.2687523558</v>
       </c>
       <c r="J24" t="n">
-        <v>2451.8</v>
+        <v>53257.6</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1447,23 +1447,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>17233009.740415</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33641828.9532309</v>
+        <v>13891952.49733932</v>
       </c>
       <c r="H25" t="n">
-        <v>365672053.8394663</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1568039.200904636</v>
+        <v>1863050.131926121</v>
       </c>
       <c r="J25" t="n">
-        <v>104000.2</v>
+        <v>123566.8</v>
       </c>
       <c r="K25" t="n">
         <v>219394.2</v>
@@ -1474,11 +1474,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1001995</v>
+        <v>1000857</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1488,26 +1488,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>63652633.40675694</v>
+        <v>722208.917884951</v>
       </c>
       <c r="G26" t="n">
-        <v>38443246.55435317</v>
+        <v>31267397.85666611</v>
       </c>
       <c r="H26" t="n">
-        <v>417861375.5907953</v>
+        <v>339863020.1811534</v>
       </c>
       <c r="I26" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="J26" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="K26" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1515,11 +1515,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1005751</v>
+        <v>1000872</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>GUARDIAN ENERGY LLC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1529,23 +1529,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>929912.0913579596</v>
+        <v>1733490.137157993</v>
       </c>
       <c r="G27" t="n">
-        <v>503066.6928134276</v>
+        <v>75049925.93813428</v>
       </c>
       <c r="H27" t="n">
-        <v>5468116.226232909</v>
+        <v>815760064.5449378</v>
       </c>
       <c r="I27" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="J27" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1556,11 +1556,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1006354</v>
+        <v>1001143</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1570,23 +1570,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>66013132.92535594</v>
+        <v>690285.8352957921</v>
       </c>
       <c r="G28" t="n">
-        <v>35711986.9411705</v>
+        <v>29885316.1633943</v>
       </c>
       <c r="H28" t="n">
-        <v>388173771.0996794</v>
+        <v>324840393.0803728</v>
       </c>
       <c r="I28" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="J28" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1597,11 +1597,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1006877</v>
+        <v>1001995</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>SAPPI CLOQUET LLC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1611,26 +1611,26 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>64027843.71821295</v>
+        <v>1082290.506012996</v>
       </c>
       <c r="G29" t="n">
-        <v>34637979.10215299</v>
+        <v>46856812.49562147</v>
       </c>
       <c r="H29" t="n">
-        <v>376499772.849489</v>
+        <v>509313179.3002334</v>
       </c>
       <c r="I29" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="J29" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
     </row>
     <row r="30">
@@ -1638,11 +1638,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1007098</v>
+        <v>1002173</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>GRANITE FALLS ENERGY LLC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1652,23 +1652,23 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>742418.6172046596</v>
+        <v>752519.0724973143</v>
       </c>
       <c r="G30" t="n">
-        <v>401635.898609363</v>
+        <v>32579649.25635432</v>
       </c>
       <c r="H30" t="n">
-        <v>4365607.593580033</v>
+        <v>354126622.3516774</v>
       </c>
       <c r="I30" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="J30" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1679,11 +1679,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1007994</v>
+        <v>1002177</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BOISE WHITE PAPER LLC</t>
+          <t>DENCO II, LLC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1693,26 +1693,26 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>57443365.80138335</v>
+        <v>371466.8945570226</v>
       </c>
       <c r="G31" t="n">
-        <v>34693136.10801937</v>
+        <v>16082331.43493933</v>
       </c>
       <c r="H31" t="n">
-        <v>377099305.5219496</v>
+        <v>174807950.3797753</v>
       </c>
       <c r="I31" t="n">
-        <v>1568039.200904636</v>
+        <v>596469.4856431081</v>
       </c>
       <c r="J31" t="n">
-        <v>104000.2</v>
+        <v>39582.2</v>
       </c>
       <c r="K31" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1720,11 +1720,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1001995</v>
+        <v>1002950</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>Greenfield Global Winnebago LLC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1734,26 +1734,26 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>973885.2911233812</v>
+        <v>680895.8391168357</v>
       </c>
       <c r="G32" t="n">
-        <v>42163504.3686358</v>
+        <v>29478784.56411712</v>
       </c>
       <c r="H32" t="n">
-        <v>458298960.52865</v>
+        <v>320421571.3490992</v>
       </c>
       <c r="I32" t="n">
-        <v>1737534.405064463</v>
+        <v>1093323.784395024</v>
       </c>
       <c r="J32" t="n">
-        <v>116206.8</v>
+        <v>72514.7</v>
       </c>
       <c r="K32" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1761,11 +1761,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1005751</v>
+        <v>1003837</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>BUSHMILLS ETHANOL INC.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1775,26 +1775,26 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>14227.65499777678</v>
+        <v>1061842.275512569</v>
       </c>
       <c r="G33" t="n">
-        <v>615973.7693155124</v>
+        <v>45971524.3986618</v>
       </c>
       <c r="H33" t="n">
-        <v>6695367.057777309</v>
+        <v>499690482.59415</v>
       </c>
       <c r="I33" t="n">
-        <v>25383.93411148933</v>
+        <v>1705014.700339238</v>
       </c>
       <c r="J33" t="n">
-        <v>3048.6</v>
+        <v>113085.1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.455191522836685e-11</v>
       </c>
     </row>
     <row r="34">
@@ -1802,11 +1802,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1006354</v>
+        <v>1003907</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>HEARTLAND CORN PRODUCTS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1816,23 +1816,23 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1010000.933757946</v>
+        <v>1873868.970332019</v>
       </c>
       <c r="G34" t="n">
-        <v>43727099.24975577</v>
+        <v>81127503.6567274</v>
       </c>
       <c r="H34" t="n">
-        <v>475294557.0625628</v>
+        <v>881820691.9209501</v>
       </c>
       <c r="I34" t="n">
-        <v>1801969.274561449</v>
+        <v>3008897.09762533</v>
       </c>
       <c r="J34" t="n">
-        <v>221221.2</v>
+        <v>199565.1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1843,11 +1843,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1006877</v>
+        <v>1004230</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>POET Biorefining - Preston, LLC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1857,23 +1857,23 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>979626.0088886581</v>
+        <v>729404.2931883755</v>
       </c>
       <c r="G35" t="n">
-        <v>42412043.67894426</v>
+        <v>31578915.28156732</v>
       </c>
       <c r="H35" t="n">
-        <v>461000474.7711333</v>
+        <v>343249079.1474708</v>
       </c>
       <c r="I35" t="n">
-        <v>1747776.570869665</v>
+        <v>1171214.474180173</v>
       </c>
       <c r="J35" t="n">
-        <v>214266.6</v>
+        <v>77680.8</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -1884,11 +1884,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1007098</v>
+        <v>1004731</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1898,23 +1898,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>11359.00484323129</v>
+        <v>819366.6724713967</v>
       </c>
       <c r="G36" t="n">
-        <v>491778.0920363665</v>
+        <v>35473757.11405576</v>
       </c>
       <c r="H36" t="n">
-        <v>5345414.043873549</v>
+        <v>385584316.4571279</v>
       </c>
       <c r="I36" t="n">
-        <v>20265.89979569555</v>
+        <v>1315668.300037693</v>
       </c>
       <c r="J36" t="n">
-        <v>2451.8</v>
+        <v>87261.70000000001</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1925,11 +1925,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1007994</v>
+        <v>1005020</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOISE WHITE PAPER LLC</t>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1939,26 +1939,26 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>878883.4967611652</v>
+        <v>766362.9780912187</v>
       </c>
       <c r="G37" t="n">
-        <v>38050485.50683633</v>
+        <v>33179008.93383159</v>
       </c>
       <c r="H37" t="n">
-        <v>413592233.7699601</v>
+        <v>360641401.4546912</v>
       </c>
       <c r="I37" t="n">
-        <v>1568039.200904636</v>
+        <v>1230559.541256294</v>
       </c>
       <c r="J37" t="n">
-        <v>104000.2</v>
+        <v>81703.7</v>
       </c>
       <c r="K37" t="n">
-        <v>219394.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1966,11 +1966,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1001995</v>
+        <v>1005149</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>AL CORN CLEAN FUEL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1980,26 +1980,26 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3437242.203964875</v>
+        <v>1817924.763027043</v>
       </c>
       <c r="G38" t="n">
-        <v>42163504.3686358</v>
+        <v>78705448.56399435</v>
       </c>
       <c r="H38" t="n">
-        <v>458298960.52865</v>
+        <v>855494006.1303734</v>
       </c>
       <c r="I38" t="n">
-        <v>1737534.405064463</v>
+        <v>2919066.716924237</v>
       </c>
       <c r="J38" t="n">
-        <v>116206.8</v>
+        <v>193607.1</v>
       </c>
       <c r="K38" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2007,11 +2007,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1005751</v>
+        <v>1005526</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>Green Plains Fairmont LLC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2021,23 +2021,23 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50215.25293332982</v>
+        <v>1497739.482299403</v>
       </c>
       <c r="G39" t="n">
-        <v>615973.7693155124</v>
+        <v>64843309.35131531</v>
       </c>
       <c r="H39" t="n">
-        <v>6695367.057777309</v>
+        <v>704818579.9056013</v>
       </c>
       <c r="I39" t="n">
-        <v>25383.93411148933</v>
+        <v>2404940.82171127</v>
       </c>
       <c r="J39" t="n">
-        <v>3048.6</v>
+        <v>159507.7</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2048,11 +2048,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1006354</v>
+        <v>1005586</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>HIGHWATER ETHANOL LLC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2062,23 +2062,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3564709.177969221</v>
+        <v>766299.4885162438</v>
       </c>
       <c r="G40" t="n">
-        <v>43727099.24975577</v>
+        <v>33176260.20870326</v>
       </c>
       <c r="H40" t="n">
-        <v>475294557.0625628</v>
+        <v>360611524.0076441</v>
       </c>
       <c r="I40" t="n">
-        <v>1801969.274561449</v>
+        <v>1230457.595175273</v>
       </c>
       <c r="J40" t="n">
-        <v>221221.2</v>
+        <v>81610.09999999999</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2089,11 +2089,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1006877</v>
+        <v>1005751</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2103,26 +2103,26 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3457503.560783499</v>
+        <v>433121.6119995472</v>
       </c>
       <c r="G41" t="n">
-        <v>42412043.67894426</v>
+        <v>18751618.02539216</v>
       </c>
       <c r="H41" t="n">
-        <v>461000474.7711333</v>
+        <v>203821935.0586104</v>
       </c>
       <c r="I41" t="n">
-        <v>1747776.570869665</v>
+        <v>695469.3107668745</v>
       </c>
       <c r="J41" t="n">
-        <v>214266.6</v>
+        <v>64055.59999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5356.100000000006</v>
       </c>
     </row>
     <row r="42">
@@ -2130,11 +2130,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1007098</v>
+        <v>1005929</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>HERON LAKE BIOENERGY LLC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2144,23 +2144,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>40090.60532905162</v>
+        <v>743759.3626962382</v>
       </c>
       <c r="G42" t="n">
-        <v>491778.0920363665</v>
+        <v>32200405.34967243</v>
       </c>
       <c r="H42" t="n">
-        <v>5345414.043873549</v>
+        <v>350004405.9747003</v>
       </c>
       <c r="I42" t="n">
-        <v>20265.89979569555</v>
+        <v>1194264.606106295</v>
       </c>
       <c r="J42" t="n">
-        <v>2451.8</v>
+        <v>79209.59999999999</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2171,11 +2171,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1007994</v>
+        <v>1006354</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOISE WHITE PAPER LLC</t>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2185,26 +2185,26 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3101941.753274701</v>
+        <v>1329784.035987871</v>
       </c>
       <c r="G43" t="n">
-        <v>38050485.50683633</v>
+        <v>57571826.49923961</v>
       </c>
       <c r="H43" t="n">
-        <v>413592233.7699601</v>
+        <v>625780722.8178219</v>
       </c>
       <c r="I43" t="n">
-        <v>1568039.200904636</v>
+        <v>2135252.45879036</v>
       </c>
       <c r="J43" t="n">
-        <v>104000.2</v>
+        <v>234600.5</v>
       </c>
       <c r="K43" t="n">
-        <v>219394.2</v>
+        <v>16364.79999999999</v>
       </c>
     </row>
     <row r="44">
@@ -2212,11 +2212,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1001995</v>
+        <v>1006877</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2226,26 +2226,26 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>17186211.01982437</v>
+        <v>1324052.045974915</v>
       </c>
       <c r="G44" t="n">
-        <v>33550469.72016276</v>
+        <v>57323665.04926693</v>
       </c>
       <c r="H44" t="n">
-        <v>364679018.6974214</v>
+        <v>623083315.7529014</v>
       </c>
       <c r="I44" t="n">
-        <v>1737534.405064463</v>
+        <v>2126048.523837243</v>
       </c>
       <c r="J44" t="n">
-        <v>116206.8</v>
+        <v>232044</v>
       </c>
       <c r="K44" t="n">
-        <v>230299.4</v>
+        <v>13719.69999999998</v>
       </c>
     </row>
     <row r="45">
@@ -2253,11 +2253,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1005751</v>
+        <v>1006946</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>VALERO WELCOME PLANT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2267,23 +2267,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>251076.2646666491</v>
+        <v>1771080.1749398</v>
       </c>
       <c r="G45" t="n">
-        <v>436331.8659293241</v>
+        <v>76677353.45621723</v>
       </c>
       <c r="H45" t="n">
-        <v>4742737.673144828</v>
+        <v>833449494.0893178</v>
       </c>
       <c r="I45" t="n">
-        <v>25383.93411148933</v>
+        <v>2843847.719562759</v>
       </c>
       <c r="J45" t="n">
-        <v>3048.6</v>
+        <v>188618.2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2294,11 +2294,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1006354</v>
+        <v>1006988</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>WestRock MN Corporation</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2308,26 +2308,26 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17823545.88984611</v>
+        <v>588513.7179367868</v>
       </c>
       <c r="G46" t="n">
-        <v>30974576.77219665</v>
+        <v>25479182.14126323</v>
       </c>
       <c r="H46" t="n">
-        <v>336680182.3064853</v>
+        <v>276947631.9702525</v>
       </c>
       <c r="I46" t="n">
-        <v>1801969.274561449</v>
+        <v>944984.5457972108</v>
       </c>
       <c r="J46" t="n">
-        <v>221221.2</v>
+        <v>62676.10000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
     </row>
     <row r="47">
@@ -2335,11 +2335,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1006877</v>
+        <v>1007098</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2349,26 +2349,26 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>17287517.8039175</v>
+        <v>636904.0072229529</v>
       </c>
       <c r="G47" t="n">
-        <v>30043042.54201252</v>
+        <v>27574197.01859373</v>
       </c>
       <c r="H47" t="n">
-        <v>326554810.2392666</v>
+        <v>299719532.8108014</v>
       </c>
       <c r="I47" t="n">
-        <v>1747776.570869665</v>
+        <v>1022685.496766369</v>
       </c>
       <c r="J47" t="n">
-        <v>214266.6</v>
+        <v>81584.10000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1225.899999999994</v>
       </c>
     </row>
     <row r="48">
@@ -2376,11 +2376,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1007098</v>
+        <v>1007830</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>Poet Bioprocessing-Bingham Lake</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2390,23 +2390,23 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200453.0266452581</v>
+        <v>500076.2361472748</v>
       </c>
       <c r="G48" t="n">
-        <v>348356.4775166261</v>
+        <v>21650359.40025849</v>
       </c>
       <c r="H48" t="n">
-        <v>3786483.451267675</v>
+        <v>235329993.4810705</v>
       </c>
       <c r="I48" t="n">
-        <v>20265.89979569555</v>
+        <v>802979.2687523558</v>
       </c>
       <c r="J48" t="n">
-        <v>2451.8</v>
+        <v>53257.6</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>15509708.7663735</v>
+        <v>1160262.953207863</v>
       </c>
       <c r="G49" t="n">
-        <v>30277646.05790781</v>
+        <v>50232560.79770513</v>
       </c>
       <c r="H49" t="n">
-        <v>329104848.4555197</v>
+        <v>546006095.6272297</v>
       </c>
       <c r="I49" t="n">
-        <v>1568039.200904636</v>
+        <v>1863050.131926121</v>
       </c>
       <c r="J49" t="n">
-        <v>104000.2</v>
+        <v>123566.8</v>
       </c>
       <c r="K49" t="n">
         <v>219394.2</v>
@@ -2458,11 +2458,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1001995</v>
+        <v>1000857</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SAPPI CLOQUET LLC</t>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2472,26 +2472,26 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>57287370.06608125</v>
+        <v>2548972.651358651</v>
       </c>
       <c r="G50" t="n">
-        <v>34598921.89891785</v>
+        <v>31267397.85666611</v>
       </c>
       <c r="H50" t="n">
-        <v>376075238.0317158</v>
+        <v>339863020.1811534</v>
       </c>
       <c r="I50" t="n">
-        <v>1737534.405064463</v>
+        <v>1159660.761402186</v>
       </c>
       <c r="J50" t="n">
-        <v>116206.8</v>
+        <v>76914.5</v>
       </c>
       <c r="K50" t="n">
-        <v>230299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2499,11 +2499,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1005751</v>
+        <v>1000872</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+          <t>GUARDIAN ENERGY LLC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2513,23 +2513,23 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>836920.8822221636</v>
+        <v>6118200.484087033</v>
       </c>
       <c r="G51" t="n">
-        <v>452760.0235320848</v>
+        <v>75049925.93813428</v>
       </c>
       <c r="H51" t="n">
-        <v>4921304.603609618</v>
+        <v>815760064.5449378</v>
       </c>
       <c r="I51" t="n">
-        <v>25383.93411148933</v>
+        <v>2783488.880512627</v>
       </c>
       <c r="J51" t="n">
-        <v>3048.6</v>
+        <v>184614.9</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2540,11 +2540,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1006354</v>
+        <v>1001143</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2554,23 +2554,23 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>59411819.63282035</v>
+        <v>2436302.948102796</v>
       </c>
       <c r="G52" t="n">
-        <v>32140788.24705345</v>
+        <v>29885316.1633943</v>
       </c>
       <c r="H52" t="n">
-        <v>349356393.9897114</v>
+        <v>324840393.0803728</v>
       </c>
       <c r="I52" t="n">
-        <v>1801969.274561449</v>
+        <v>1108401.430002534</v>
       </c>
       <c r="J52" t="n">
-        <v>221221.2</v>
+        <v>73724.49999999999</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2581,11 +2581,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1006877</v>
+        <v>1001995</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+          <t>SAPPI CLOQUET LLC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2595,26 +2595,26 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>57625059.34639166</v>
+        <v>3819848.84475175</v>
       </c>
       <c r="G53" t="n">
-        <v>31174181.19193769</v>
+        <v>46856812.49562147</v>
       </c>
       <c r="H53" t="n">
-        <v>338849795.5645401</v>
+        <v>509313179.3002334</v>
       </c>
       <c r="I53" t="n">
-        <v>1747776.570869665</v>
+        <v>1737848.704412323</v>
       </c>
       <c r="J53" t="n">
-        <v>214266.6</v>
+        <v>116231.5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>230299.4</v>
       </c>
     </row>
     <row r="54">
@@ -2622,11 +2622,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1007098</v>
+        <v>1002173</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+          <t>GRANITE FALLS ENERGY LLC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2636,23 +2636,23 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>668176.7554841937</v>
+        <v>2655949.66763758</v>
       </c>
       <c r="G54" t="n">
-        <v>361472.3087484267</v>
+        <v>32579649.25635432</v>
       </c>
       <c r="H54" t="n">
-        <v>3929046.83422203</v>
+        <v>354126622.3516774</v>
       </c>
       <c r="I54" t="n">
-        <v>20265.89979569555</v>
+        <v>1208330.192235205</v>
       </c>
       <c r="J54" t="n">
-        <v>2451.8</v>
+        <v>80142.5</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2663,39 +2663,6681 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>1002177</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DENCO II, LLC</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1311059.627848315</v>
+      </c>
+      <c r="G55" t="n">
+        <v>16082331.43493933</v>
+      </c>
+      <c r="H55" t="n">
+        <v>174807950.3797753</v>
+      </c>
+      <c r="I55" t="n">
+        <v>596469.4856431081</v>
+      </c>
+      <c r="J55" t="n">
+        <v>39582.2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2403161.785118244</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29478784.56411712</v>
+      </c>
+      <c r="H56" t="n">
+        <v>320421571.3490992</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="J56" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>3747678.619456125</v>
+      </c>
+      <c r="G57" t="n">
+        <v>45971524.3986618</v>
+      </c>
+      <c r="H57" t="n">
+        <v>499690482.59415</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="J57" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>6613655.189407125</v>
+      </c>
+      <c r="G58" t="n">
+        <v>81127503.6567274</v>
+      </c>
+      <c r="H58" t="n">
+        <v>881820691.9209501</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="J58" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2574368.093606031</v>
+      </c>
+      <c r="G59" t="n">
+        <v>31578915.28156732</v>
+      </c>
+      <c r="H59" t="n">
+        <v>343249079.1474708</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="J59" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2891882.373428459</v>
+      </c>
+      <c r="G60" t="n">
+        <v>35473757.11405576</v>
+      </c>
+      <c r="H60" t="n">
+        <v>385584316.4571279</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="J60" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2704810.510910184</v>
+      </c>
+      <c r="G61" t="n">
+        <v>33179008.93383159</v>
+      </c>
+      <c r="H61" t="n">
+        <v>360641401.4546912</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="J61" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>6416205.0459778</v>
+      </c>
+      <c r="G62" t="n">
+        <v>78705448.56399435</v>
+      </c>
+      <c r="H62" t="n">
+        <v>855494006.1303734</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="J62" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>5286139.349292009</v>
+      </c>
+      <c r="G63" t="n">
+        <v>64843309.35131531</v>
+      </c>
+      <c r="H63" t="n">
+        <v>704818579.9056013</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="J63" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2704586.430057331</v>
+      </c>
+      <c r="G64" t="n">
+        <v>33176260.20870326</v>
+      </c>
+      <c r="H64" t="n">
+        <v>360611524.0076441</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="J64" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1528664.512939578</v>
+      </c>
+      <c r="G65" t="n">
+        <v>18751618.02539216</v>
+      </c>
+      <c r="H65" t="n">
+        <v>203821935.0586104</v>
+      </c>
+      <c r="I65" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="J65" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5356.100000000006</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2625033.044810253</v>
+      </c>
+      <c r="G66" t="n">
+        <v>32200405.34967243</v>
+      </c>
+      <c r="H66" t="n">
+        <v>350004405.9747003</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="J66" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>4693355.421133664</v>
+      </c>
+      <c r="G67" t="n">
+        <v>57571826.49923961</v>
+      </c>
+      <c r="H67" t="n">
+        <v>625780722.8178219</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="J67" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>16364.79999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>4673124.86814676</v>
+      </c>
+      <c r="G68" t="n">
+        <v>57323665.04926693</v>
+      </c>
+      <c r="H68" t="n">
+        <v>623083315.7529014</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="J68" t="n">
+        <v>232044</v>
+      </c>
+      <c r="K68" t="n">
+        <v>13719.69999999998</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>6250871.205669883</v>
+      </c>
+      <c r="G69" t="n">
+        <v>76677353.45621723</v>
+      </c>
+      <c r="H69" t="n">
+        <v>833449494.0893178</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="J69" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2077107.239776894</v>
+      </c>
+      <c r="G70" t="n">
+        <v>25479182.14126323</v>
+      </c>
+      <c r="H70" t="n">
+        <v>276947631.9702525</v>
+      </c>
+      <c r="I70" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="J70" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>2247896.49608101</v>
+      </c>
+      <c r="G71" t="n">
+        <v>27574197.01859373</v>
+      </c>
+      <c r="H71" t="n">
+        <v>299719532.8108014</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="J71" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1225.899999999994</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1764974.951108029</v>
+      </c>
+      <c r="G72" t="n">
+        <v>21650359.40025849</v>
+      </c>
+      <c r="H72" t="n">
+        <v>235329993.4810705</v>
+      </c>
+      <c r="I72" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="J72" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>1007994</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>BOISE WHITE PAPER LLC</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Scenario1Worst</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>4095045.717204222</v>
+      </c>
+      <c r="G73" t="n">
+        <v>50232560.79770513</v>
+      </c>
+      <c r="H73" t="n">
+        <v>546006095.6272297</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="J73" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="K73" t="n">
+        <v>219394.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1000857</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>12744863.25679325</v>
+      </c>
+      <c r="G74" t="n">
+        <v>18534212.29917155</v>
+      </c>
+      <c r="H74" t="n">
+        <v>201458829.3388212</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1159660.761402186</v>
+      </c>
+      <c r="J74" t="n">
+        <v>76914.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1000872</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>GUARDIAN ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>30591002.42043517</v>
+      </c>
+      <c r="G75" t="n">
+        <v>44486953.04773906</v>
+      </c>
+      <c r="H75" t="n">
+        <v>483553837.4754245</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2783488.880512627</v>
+      </c>
+      <c r="J75" t="n">
+        <v>184614.9</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1001143</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>12181514.74051398</v>
+      </c>
+      <c r="G76" t="n">
+        <v>17714962.94444991</v>
+      </c>
+      <c r="H76" t="n">
+        <v>192553945.0483686</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1108401.430002534</v>
+      </c>
+      <c r="J76" t="n">
+        <v>73724.49999999999</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1001995</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SAPPI CLOQUET LLC</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>19099244.22375875</v>
+      </c>
+      <c r="G77" t="n">
+        <v>37285042.89095828</v>
+      </c>
+      <c r="H77" t="n">
+        <v>405272205.336503</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1737848.704412323</v>
+      </c>
+      <c r="J77" t="n">
+        <v>116231.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>230299.4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1002173</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GRANITE FALLS ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>13279748.3381879</v>
+      </c>
+      <c r="G78" t="n">
+        <v>19312068.71508436</v>
+      </c>
+      <c r="H78" t="n">
+        <v>209913790.3813517</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1208330.192235205</v>
+      </c>
+      <c r="J78" t="n">
+        <v>80142.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1002177</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DENCO II, LLC</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>6555298.139241575</v>
+      </c>
+      <c r="G79" t="n">
+        <v>9533039.699920453</v>
+      </c>
+      <c r="H79" t="n">
+        <v>103619996.7382658</v>
+      </c>
+      <c r="I79" t="n">
+        <v>596469.4856431081</v>
+      </c>
+      <c r="J79" t="n">
+        <v>39582.2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>12015808.92559122</v>
+      </c>
+      <c r="G80" t="n">
+        <v>17473985.32930377</v>
+      </c>
+      <c r="H80" t="n">
+        <v>189934623.1446062</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="J80" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>18738393.09728063</v>
+      </c>
+      <c r="G81" t="n">
+        <v>27250300.67507485</v>
+      </c>
+      <c r="H81" t="n">
+        <v>296198920.3812484</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="J81" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>33068275.94703563</v>
+      </c>
+      <c r="G82" t="n">
+        <v>48089527.08404008</v>
+      </c>
+      <c r="H82" t="n">
+        <v>522712250.9134791</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="J82" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>12871840.46803016</v>
+      </c>
+      <c r="G83" t="n">
+        <v>18718868.85788096</v>
+      </c>
+      <c r="H83" t="n">
+        <v>203465965.8465322</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="J83" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>14459411.8671423</v>
+      </c>
+      <c r="G84" t="n">
+        <v>21027593.93074931</v>
+      </c>
+      <c r="H84" t="n">
+        <v>228560803.5951012</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="J84" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>13524052.55455092</v>
+      </c>
+      <c r="G85" t="n">
+        <v>19667348.02412217</v>
+      </c>
+      <c r="H85" t="n">
+        <v>213775522.0013279</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="J85" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>32081025.229889</v>
+      </c>
+      <c r="G86" t="n">
+        <v>46653818.1230709</v>
+      </c>
+      <c r="H86" t="n">
+        <v>507106718.7290315</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="J86" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>26430696.74646005</v>
+      </c>
+      <c r="G87" t="n">
+        <v>38436830.18354882</v>
+      </c>
+      <c r="H87" t="n">
+        <v>417791632.4298785</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="J87" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>13522932.15028665</v>
+      </c>
+      <c r="G88" t="n">
+        <v>19665718.67666851</v>
+      </c>
+      <c r="H88" t="n">
+        <v>213757811.7029185</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="J88" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>7643322.564697891</v>
+      </c>
+      <c r="G89" t="n">
+        <v>13282917.04905763</v>
+      </c>
+      <c r="H89" t="n">
+        <v>144379533.1419307</v>
+      </c>
+      <c r="I89" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="J89" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5356.100000000006</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>13125165.22405126</v>
+      </c>
+      <c r="G90" t="n">
+        <v>19087266.28311253</v>
+      </c>
+      <c r="H90" t="n">
+        <v>207470285.6860057</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="J90" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>23466777.10566832</v>
+      </c>
+      <c r="G91" t="n">
+        <v>40781643.20095491</v>
+      </c>
+      <c r="H91" t="n">
+        <v>443278730.445162</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="J91" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>16364.79999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>23365624.3407338</v>
+      </c>
+      <c r="G92" t="n">
+        <v>40605855.27959806</v>
+      </c>
+      <c r="H92" t="n">
+        <v>441367992.1695442</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="J92" t="n">
+        <v>232044</v>
+      </c>
+      <c r="K92" t="n">
+        <v>13719.69999999998</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>31254356.02834941</v>
+      </c>
+      <c r="G93" t="n">
+        <v>45451634.76701531</v>
+      </c>
+      <c r="H93" t="n">
+        <v>494039508.3371229</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="J93" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>10385536.19888447</v>
+      </c>
+      <c r="G94" t="n">
+        <v>12050693.11426607</v>
+      </c>
+      <c r="H94" t="n">
+        <v>130985794.7202834</v>
+      </c>
+      <c r="I94" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="J94" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>11239482.48040505</v>
+      </c>
+      <c r="G95" t="n">
+        <v>19532488.94022802</v>
+      </c>
+      <c r="H95" t="n">
+        <v>212309662.3937828</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="J95" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1225.899999999994</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>8824874.755540144</v>
+      </c>
+      <c r="G96" t="n">
+        <v>12833570.58739716</v>
+      </c>
+      <c r="H96" t="n">
+        <v>139495332.4717082</v>
+      </c>
+      <c r="I96" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="J96" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1007994</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BOISE WHITE PAPER LLC</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Scenario2Best</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>20475228.58602111</v>
+      </c>
+      <c r="G97" t="n">
+        <v>39971203.41978277</v>
+      </c>
+      <c r="H97" t="n">
+        <v>434469602.3889432</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="J97" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="K97" t="n">
+        <v>219394.2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1000857</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>42482877.52264418</v>
+      </c>
+      <c r="G98" t="n">
+        <v>19442752.11775839</v>
+      </c>
+      <c r="H98" t="n">
+        <v>211334262.1495477</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1159660.761402186</v>
+      </c>
+      <c r="J98" t="n">
+        <v>76914.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1000872</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>GUARDIAN ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>101970008.0681172</v>
+      </c>
+      <c r="G99" t="n">
+        <v>46667686.04027528</v>
+      </c>
+      <c r="H99" t="n">
+        <v>507257456.959514</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2783488.880512627</v>
+      </c>
+      <c r="J99" t="n">
+        <v>184614.9</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1001143</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>40605049.13504659</v>
+      </c>
+      <c r="G100" t="n">
+        <v>18583343.48094255</v>
+      </c>
+      <c r="H100" t="n">
+        <v>201992863.9232886</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1108401.430002534</v>
+      </c>
+      <c r="J100" t="n">
+        <v>73724.49999999999</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1001995</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SAPPI CLOQUET LLC</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>63664147.41252917</v>
+      </c>
+      <c r="G101" t="n">
+        <v>38450200.48130072</v>
+      </c>
+      <c r="H101" t="n">
+        <v>417936961.7532687</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1737848.704412323</v>
+      </c>
+      <c r="J101" t="n">
+        <v>116231.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>230299.4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1002173</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>GRANITE FALLS ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>44265827.79395967</v>
+      </c>
+      <c r="G102" t="n">
+        <v>20258738.75013751</v>
+      </c>
+      <c r="H102" t="n">
+        <v>220203682.0667121</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1208330.192235205</v>
+      </c>
+      <c r="J102" t="n">
+        <v>80142.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1002177</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DENCO II, LLC</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>21850993.79747192</v>
+      </c>
+      <c r="G103" t="n">
+        <v>10000345.56756361</v>
+      </c>
+      <c r="H103" t="n">
+        <v>108699408.3430828</v>
+      </c>
+      <c r="I103" t="n">
+        <v>596469.4856431081</v>
+      </c>
+      <c r="J103" t="n">
+        <v>39582.2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>40052696.41863739</v>
+      </c>
+      <c r="G104" t="n">
+        <v>18330553.23760298</v>
+      </c>
+      <c r="H104" t="n">
+        <v>199245143.8869889</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="J104" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>62461310.32426875</v>
+      </c>
+      <c r="G105" t="n">
+        <v>28586099.72777459</v>
+      </c>
+      <c r="H105" t="n">
+        <v>310718475.3018978</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="J105" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>110227586.4901188</v>
+      </c>
+      <c r="G106" t="n">
+        <v>50446856.84306166</v>
+      </c>
+      <c r="H106" t="n">
+        <v>548335400.4680614</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="J106" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>42906134.89343385</v>
+      </c>
+      <c r="G107" t="n">
+        <v>19636460.4685614</v>
+      </c>
+      <c r="H107" t="n">
+        <v>213439787.7017544</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="J107" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>48198039.55714098</v>
+      </c>
+      <c r="G108" t="n">
+        <v>22058358.33911938</v>
+      </c>
+      <c r="H108" t="n">
+        <v>239764764.5556454</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="J108" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>45080175.1818364</v>
+      </c>
+      <c r="G109" t="n">
+        <v>20631433.71157914</v>
+      </c>
+      <c r="H109" t="n">
+        <v>224254714.256295</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="J109" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>106936750.7662967</v>
+      </c>
+      <c r="G110" t="n">
+        <v>48940769.99184888</v>
+      </c>
+      <c r="H110" t="n">
+        <v>531964891.2157487</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="J110" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>88102322.48820016</v>
+      </c>
+      <c r="G111" t="n">
+        <v>40320988.52587964</v>
+      </c>
+      <c r="H111" t="n">
+        <v>438271614.4117352</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="J111" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>45076440.50095551</v>
+      </c>
+      <c r="G112" t="n">
+        <v>20629724.49415226</v>
+      </c>
+      <c r="H112" t="n">
+        <v>224236135.8060028</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="J112" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>25477741.8823263</v>
+      </c>
+      <c r="G113" t="n">
+        <v>13783026.8777119</v>
+      </c>
+      <c r="H113" t="n">
+        <v>149815509.5403468</v>
+      </c>
+      <c r="I113" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="J113" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="K113" t="n">
+        <v>5356.100000000006</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>43750550.74683754</v>
+      </c>
+      <c r="G114" t="n">
+        <v>20022916.59110824</v>
+      </c>
+      <c r="H114" t="n">
+        <v>217640397.7294374</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="J114" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>78222590.35222773</v>
+      </c>
+      <c r="G115" t="n">
+        <v>42317096.63472579</v>
+      </c>
+      <c r="H115" t="n">
+        <v>459968441.6818021</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="J115" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>16364.79999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>77885414.46911266</v>
+      </c>
+      <c r="G116" t="n">
+        <v>42134690.19223354</v>
+      </c>
+      <c r="H116" t="n">
+        <v>457985762.9590602</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="J116" t="n">
+        <v>232044</v>
+      </c>
+      <c r="K116" t="n">
+        <v>13719.69999999998</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>104181186.7611647</v>
+      </c>
+      <c r="G117" t="n">
+        <v>47679656.0791239</v>
+      </c>
+      <c r="H117" t="n">
+        <v>518257131.294825</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="J117" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>34618453.99628158</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12854072.65521714</v>
+      </c>
+      <c r="H118" t="n">
+        <v>139718181.034969</v>
+      </c>
+      <c r="I118" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="J118" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>37464941.60135017</v>
+      </c>
+      <c r="G119" t="n">
+        <v>20267898.9153872</v>
+      </c>
+      <c r="H119" t="n">
+        <v>220303249.0802957</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="J119" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1225.899999999994</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>29416249.18513381</v>
+      </c>
+      <c r="G120" t="n">
+        <v>13462667.18481859</v>
+      </c>
+      <c r="H120" t="n">
+        <v>146333338.9654194</v>
+      </c>
+      <c r="I120" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="J120" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1007994</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>BOISE WHITE PAPER LLC</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Scenario2Worst</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>68250761.95340371</v>
+      </c>
+      <c r="G121" t="n">
+        <v>41220303.52665099</v>
+      </c>
+      <c r="H121" t="n">
+        <v>448046777.4635977</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="J121" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="K121" t="n">
+        <v>219394.2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1000857</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>649988.0260964559</v>
+      </c>
+      <c r="G122" t="n">
+        <v>28140658.0709995</v>
+      </c>
+      <c r="H122" t="n">
+        <v>305876718.1630381</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1159660.761402186</v>
+      </c>
+      <c r="J122" t="n">
+        <v>76914.5</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1000872</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>GUARDIAN ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1560141.123442194</v>
+      </c>
+      <c r="G123" t="n">
+        <v>67544933.34432085</v>
+      </c>
+      <c r="H123" t="n">
+        <v>734184058.0904441</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2783488.880512627</v>
+      </c>
+      <c r="J123" t="n">
+        <v>184614.9</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1001143</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>621257.251766213</v>
+      </c>
+      <c r="G124" t="n">
+        <v>26896784.54705487</v>
+      </c>
+      <c r="H124" t="n">
+        <v>292356353.7723355</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1108401.430002534</v>
+      </c>
+      <c r="J124" t="n">
+        <v>73724.49999999999</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1001995</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SAPPI CLOQUET LLC</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>974061.4554116963</v>
+      </c>
+      <c r="G125" t="n">
+        <v>42171131.24605932</v>
+      </c>
+      <c r="H125" t="n">
+        <v>458381861.3702101</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1737848.704412323</v>
+      </c>
+      <c r="J125" t="n">
+        <v>116231.5</v>
+      </c>
+      <c r="K125" t="n">
+        <v>230299.4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1002173</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>GRANITE FALLS ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>677267.1652475828</v>
+      </c>
+      <c r="G126" t="n">
+        <v>29321684.33071888</v>
+      </c>
+      <c r="H126" t="n">
+        <v>318713960.1165096</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1208330.192235205</v>
+      </c>
+      <c r="J126" t="n">
+        <v>80142.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1002177</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DENCO II, LLC</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>334320.2051013203</v>
+      </c>
+      <c r="G127" t="n">
+        <v>14474098.2914454</v>
+      </c>
+      <c r="H127" t="n">
+        <v>157327155.3417978</v>
+      </c>
+      <c r="I127" t="n">
+        <v>596469.4856431081</v>
+      </c>
+      <c r="J127" t="n">
+        <v>39582.2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>612806.2552051522</v>
+      </c>
+      <c r="G128" t="n">
+        <v>26530906.10770541</v>
+      </c>
+      <c r="H128" t="n">
+        <v>288379414.2141892</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="J128" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>955658.047961312</v>
+      </c>
+      <c r="G129" t="n">
+        <v>41374371.95879562</v>
+      </c>
+      <c r="H129" t="n">
+        <v>449721434.334735</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="J129" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1686482.073298817</v>
+      </c>
+      <c r="G130" t="n">
+        <v>73014753.29105467</v>
+      </c>
+      <c r="H130" t="n">
+        <v>793638622.728855</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="J130" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>656463.8638695379</v>
+      </c>
+      <c r="G131" t="n">
+        <v>28421023.75341059</v>
+      </c>
+      <c r="H131" t="n">
+        <v>308924171.2327238</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="J131" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>737430.0052242571</v>
+      </c>
+      <c r="G132" t="n">
+        <v>31926381.40265018</v>
+      </c>
+      <c r="H132" t="n">
+        <v>347025884.8114151</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="J132" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>689726.680282097</v>
+      </c>
+      <c r="G133" t="n">
+        <v>29861108.04044843</v>
+      </c>
+      <c r="H133" t="n">
+        <v>324577261.309222</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="J133" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1636132.286724339</v>
+      </c>
+      <c r="G134" t="n">
+        <v>70834903.70759492</v>
+      </c>
+      <c r="H134" t="n">
+        <v>769944605.517336</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="J134" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1347965.534069462</v>
+      </c>
+      <c r="G135" t="n">
+        <v>58358978.41618379</v>
+      </c>
+      <c r="H135" t="n">
+        <v>634336721.9150412</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="J135" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>689669.5396646194</v>
+      </c>
+      <c r="G136" t="n">
+        <v>29858634.18783293</v>
+      </c>
+      <c r="H136" t="n">
+        <v>324550371.6068797</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="J136" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>389809.4507995924</v>
+      </c>
+      <c r="G137" t="n">
+        <v>16876456.22285294</v>
+      </c>
+      <c r="H137" t="n">
+        <v>183439741.5527494</v>
+      </c>
+      <c r="I137" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="J137" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="K137" t="n">
+        <v>5356.100000000006</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>669383.4264266144</v>
+      </c>
+      <c r="G138" t="n">
+        <v>28980364.81470519</v>
+      </c>
+      <c r="H138" t="n">
+        <v>315003965.3772303</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="J138" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1196805.632389084</v>
+      </c>
+      <c r="G139" t="n">
+        <v>51814643.84931565</v>
+      </c>
+      <c r="H139" t="n">
+        <v>563202650.5360397</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="J139" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>16364.79999999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1191646.841377424</v>
+      </c>
+      <c r="G140" t="n">
+        <v>51591298.54434025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>560774984.1776114</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="J140" t="n">
+        <v>232044</v>
+      </c>
+      <c r="K140" t="n">
+        <v>13719.69999999998</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1593972.15744582</v>
+      </c>
+      <c r="G141" t="n">
+        <v>69009618.11059552</v>
+      </c>
+      <c r="H141" t="n">
+        <v>750104544.6803861</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="J141" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>529662.3461431081</v>
+      </c>
+      <c r="G142" t="n">
+        <v>22931263.92713691</v>
+      </c>
+      <c r="H142" t="n">
+        <v>249252868.7732273</v>
+      </c>
+      <c r="I142" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="J142" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>573213.6065006576</v>
+      </c>
+      <c r="G143" t="n">
+        <v>24816777.31673435</v>
+      </c>
+      <c r="H143" t="n">
+        <v>269747579.5297213</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="J143" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1225.899999999994</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>450068.6125325473</v>
+      </c>
+      <c r="G144" t="n">
+        <v>19485323.46023264</v>
+      </c>
+      <c r="H144" t="n">
+        <v>211796994.1329634</v>
+      </c>
+      <c r="I144" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="J144" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1007994</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>BOISE WHITE PAPER LLC</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Scenario3Best</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1044236.657887077</v>
+      </c>
+      <c r="G145" t="n">
+        <v>45209304.71793462</v>
+      </c>
+      <c r="H145" t="n">
+        <v>491405486.0645067</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="J145" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="K145" t="n">
+        <v>219394.2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1000857</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>2294075.386222786</v>
+      </c>
+      <c r="G146" t="n">
+        <v>28140658.0709995</v>
+      </c>
+      <c r="H146" t="n">
+        <v>305876718.1630381</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1159660.761402186</v>
+      </c>
+      <c r="J146" t="n">
+        <v>76914.5</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1000872</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>GUARDIAN ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>5506380.43567833</v>
+      </c>
+      <c r="G147" t="n">
+        <v>67544933.34432085</v>
+      </c>
+      <c r="H147" t="n">
+        <v>734184058.0904441</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2783488.880512627</v>
+      </c>
+      <c r="J147" t="n">
+        <v>184614.9</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1001143</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2192672.653292516</v>
+      </c>
+      <c r="G148" t="n">
+        <v>26896784.54705487</v>
+      </c>
+      <c r="H148" t="n">
+        <v>292356353.7723355</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1108401.430002534</v>
+      </c>
+      <c r="J148" t="n">
+        <v>73724.49999999999</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1001995</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SAPPI CLOQUET LLC</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>3437863.960276576</v>
+      </c>
+      <c r="G149" t="n">
+        <v>42171131.24605932</v>
+      </c>
+      <c r="H149" t="n">
+        <v>458381861.3702101</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1737848.704412323</v>
+      </c>
+      <c r="J149" t="n">
+        <v>116231.5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>230299.4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1002173</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>GRANITE FALLS ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>2390354.700873822</v>
+      </c>
+      <c r="G150" t="n">
+        <v>29321684.33071888</v>
+      </c>
+      <c r="H150" t="n">
+        <v>318713960.1165096</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1208330.192235205</v>
+      </c>
+      <c r="J150" t="n">
+        <v>80142.5</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1002177</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DENCO II, LLC</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1179953.665063483</v>
+      </c>
+      <c r="G151" t="n">
+        <v>14474098.2914454</v>
+      </c>
+      <c r="H151" t="n">
+        <v>157327155.3417978</v>
+      </c>
+      <c r="I151" t="n">
+        <v>596469.4856431081</v>
+      </c>
+      <c r="J151" t="n">
+        <v>39582.2</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>2162845.60660642</v>
+      </c>
+      <c r="G152" t="n">
+        <v>26530906.10770541</v>
+      </c>
+      <c r="H152" t="n">
+        <v>288379414.2141892</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="J152" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>3372910.757510513</v>
+      </c>
+      <c r="G153" t="n">
+        <v>41374371.95879562</v>
+      </c>
+      <c r="H153" t="n">
+        <v>449721434.334735</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="J153" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>5952289.670466414</v>
+      </c>
+      <c r="G154" t="n">
+        <v>73014753.29105467</v>
+      </c>
+      <c r="H154" t="n">
+        <v>793638622.728855</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="J154" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>2316931.284245428</v>
+      </c>
+      <c r="G155" t="n">
+        <v>28421023.75341059</v>
+      </c>
+      <c r="H155" t="n">
+        <v>308924171.2327238</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="J155" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>2602694.136085613</v>
+      </c>
+      <c r="G156" t="n">
+        <v>31926381.40265018</v>
+      </c>
+      <c r="H156" t="n">
+        <v>347025884.8114151</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="J156" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>2434329.459819166</v>
+      </c>
+      <c r="G157" t="n">
+        <v>29861108.04044843</v>
+      </c>
+      <c r="H157" t="n">
+        <v>324577261.309222</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="J157" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>5774584.541380021</v>
+      </c>
+      <c r="G158" t="n">
+        <v>70834903.70759492</v>
+      </c>
+      <c r="H158" t="n">
+        <v>769944605.517336</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="J158" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>4757525.414362809</v>
+      </c>
+      <c r="G159" t="n">
+        <v>58358978.41618379</v>
+      </c>
+      <c r="H159" t="n">
+        <v>634336721.9150412</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="J159" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>2434127.787051598</v>
+      </c>
+      <c r="G160" t="n">
+        <v>29858634.18783293</v>
+      </c>
+      <c r="H160" t="n">
+        <v>324550371.6068797</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="J160" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>1375798.061645621</v>
+      </c>
+      <c r="G161" t="n">
+        <v>16876456.22285294</v>
+      </c>
+      <c r="H161" t="n">
+        <v>183439741.5527494</v>
+      </c>
+      <c r="I161" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="J161" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="K161" t="n">
+        <v>5356.100000000006</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>2362529.740329227</v>
+      </c>
+      <c r="G162" t="n">
+        <v>28980364.81470519</v>
+      </c>
+      <c r="H162" t="n">
+        <v>315003965.3772303</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="J162" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>4224019.879020298</v>
+      </c>
+      <c r="G163" t="n">
+        <v>51814643.84931565</v>
+      </c>
+      <c r="H163" t="n">
+        <v>563202650.5360397</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="J163" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="K163" t="n">
+        <v>16364.79999999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>4205812.381332085</v>
+      </c>
+      <c r="G164" t="n">
+        <v>51591298.54434025</v>
+      </c>
+      <c r="H164" t="n">
+        <v>560774984.1776114</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="J164" t="n">
+        <v>232044</v>
+      </c>
+      <c r="K164" t="n">
+        <v>13719.69999999998</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>5625784.085102894</v>
+      </c>
+      <c r="G165" t="n">
+        <v>69009618.11059552</v>
+      </c>
+      <c r="H165" t="n">
+        <v>750104544.6803861</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="J165" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1869396.515799205</v>
+      </c>
+      <c r="G166" t="n">
+        <v>22931263.92713691</v>
+      </c>
+      <c r="H166" t="n">
+        <v>249252868.7732273</v>
+      </c>
+      <c r="I166" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="J166" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>2023106.846472909</v>
+      </c>
+      <c r="G167" t="n">
+        <v>24816777.31673435</v>
+      </c>
+      <c r="H167" t="n">
+        <v>269747579.5297213</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="J167" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1225.899999999994</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1588477.455997226</v>
+      </c>
+      <c r="G168" t="n">
+        <v>19485323.46023264</v>
+      </c>
+      <c r="H168" t="n">
+        <v>211796994.1329634</v>
+      </c>
+      <c r="I168" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="J168" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1007994</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>BOISE WHITE PAPER LLC</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Scenario3Worst</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>3685541.1454838</v>
+      </c>
+      <c r="G169" t="n">
+        <v>45209304.71793462</v>
+      </c>
+      <c r="H169" t="n">
+        <v>491405486.0645067</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="J169" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="K169" t="n">
+        <v>219394.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1000857</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>11470376.93111393</v>
+      </c>
+      <c r="G170" t="n">
+        <v>16680791.06925439</v>
+      </c>
+      <c r="H170" t="n">
+        <v>181312946.4049391</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1159660.761402186</v>
+      </c>
+      <c r="J170" t="n">
+        <v>76914.5</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1000872</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>GUARDIAN ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>27531902.17839165</v>
+      </c>
+      <c r="G171" t="n">
+        <v>40038257.74296515</v>
+      </c>
+      <c r="H171" t="n">
+        <v>435198453.7278821</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2783488.880512627</v>
+      </c>
+      <c r="J171" t="n">
+        <v>184614.9</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1001143</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>10963363.26646258</v>
+      </c>
+      <c r="G172" t="n">
+        <v>15943466.65000492</v>
+      </c>
+      <c r="H172" t="n">
+        <v>173298550.5435318</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1108401.430002534</v>
+      </c>
+      <c r="J172" t="n">
+        <v>73724.49999999999</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1001995</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>SAPPI CLOQUET LLC</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>17189319.80138288</v>
+      </c>
+      <c r="G173" t="n">
+        <v>33556538.60186245</v>
+      </c>
+      <c r="H173" t="n">
+        <v>364744984.8028527</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1737848.704412323</v>
+      </c>
+      <c r="J173" t="n">
+        <v>116231.5</v>
+      </c>
+      <c r="K173" t="n">
+        <v>230299.4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1002173</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>GRANITE FALLS ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>11951773.50436911</v>
+      </c>
+      <c r="G174" t="n">
+        <v>17380861.84357592</v>
+      </c>
+      <c r="H174" t="n">
+        <v>188922411.3432165</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1208330.192235205</v>
+      </c>
+      <c r="J174" t="n">
+        <v>80142.5</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1002177</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DENCO II, LLC</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>5899768.325317417</v>
+      </c>
+      <c r="G175" t="n">
+        <v>8579735.72992841</v>
+      </c>
+      <c r="H175" t="n">
+        <v>93257997.06443924</v>
+      </c>
+      <c r="I175" t="n">
+        <v>596469.4856431081</v>
+      </c>
+      <c r="J175" t="n">
+        <v>39582.2</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>10814228.0330321</v>
+      </c>
+      <c r="G176" t="n">
+        <v>15726586.7963734</v>
+      </c>
+      <c r="H176" t="n">
+        <v>170941160.8301456</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="J176" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>16864553.78755257</v>
+      </c>
+      <c r="G177" t="n">
+        <v>24525270.60756736</v>
+      </c>
+      <c r="H177" t="n">
+        <v>266579028.3431235</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="J177" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>29761448.35233207</v>
+      </c>
+      <c r="G178" t="n">
+        <v>43280574.37563606</v>
+      </c>
+      <c r="H178" t="n">
+        <v>470441025.8221312</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="J178" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>11584656.42122714</v>
+      </c>
+      <c r="G179" t="n">
+        <v>16846981.97209287</v>
+      </c>
+      <c r="H179" t="n">
+        <v>183119369.261879</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="J179" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>13013470.68042807</v>
+      </c>
+      <c r="G180" t="n">
+        <v>18924834.53767438</v>
+      </c>
+      <c r="H180" t="n">
+        <v>205704723.2355911</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="J180" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>12171647.29909583</v>
+      </c>
+      <c r="G181" t="n">
+        <v>17700613.22170995</v>
+      </c>
+      <c r="H181" t="n">
+        <v>192397969.8011951</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="J181" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>28872922.7069001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>41988436.31076381</v>
+      </c>
+      <c r="H182" t="n">
+        <v>456396046.8561283</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="J182" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>23787627.07181404</v>
+      </c>
+      <c r="G183" t="n">
+        <v>34593147.16519394</v>
+      </c>
+      <c r="H183" t="n">
+        <v>376012469.1868907</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="J183" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>12170638.93525799</v>
+      </c>
+      <c r="G184" t="n">
+        <v>17699146.80900165</v>
+      </c>
+      <c r="H184" t="n">
+        <v>192382030.5326267</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="J184" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>6878990.308228102</v>
+      </c>
+      <c r="G185" t="n">
+        <v>11954625.34415186</v>
+      </c>
+      <c r="H185" t="n">
+        <v>129941579.8277376</v>
+      </c>
+      <c r="I185" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="J185" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="K185" t="n">
+        <v>5356.100000000006</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>11812648.70164614</v>
+      </c>
+      <c r="G186" t="n">
+        <v>17178539.65480128</v>
+      </c>
+      <c r="H186" t="n">
+        <v>186723257.1174052</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="J186" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>21120099.39510149</v>
+      </c>
+      <c r="G187" t="n">
+        <v>36703478.88085941</v>
+      </c>
+      <c r="H187" t="n">
+        <v>398950857.4006458</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="J187" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="K187" t="n">
+        <v>16364.79999999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>21029061.90666042</v>
+      </c>
+      <c r="G188" t="n">
+        <v>36545269.75163827</v>
+      </c>
+      <c r="H188" t="n">
+        <v>397231192.9525899</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="J188" t="n">
+        <v>232044</v>
+      </c>
+      <c r="K188" t="n">
+        <v>13719.69999999998</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>28128920.42551447</v>
+      </c>
+      <c r="G189" t="n">
+        <v>40906471.29031378</v>
+      </c>
+      <c r="H189" t="n">
+        <v>444635557.5034106</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="J189" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>9346982.578996025</v>
+      </c>
+      <c r="G190" t="n">
+        <v>10845623.80283947</v>
+      </c>
+      <c r="H190" t="n">
+        <v>117887215.2482551</v>
+      </c>
+      <c r="I190" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="J190" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>10115534.23236455</v>
+      </c>
+      <c r="G191" t="n">
+        <v>17579240.04620521</v>
+      </c>
+      <c r="H191" t="n">
+        <v>191078696.1544045</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="J191" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1225.899999999994</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>7942387.279986129</v>
+      </c>
+      <c r="G192" t="n">
+        <v>11550213.52865744</v>
+      </c>
+      <c r="H192" t="n">
+        <v>125545799.2245374</v>
+      </c>
+      <c r="I192" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="J192" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1007994</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>BOISE WHITE PAPER LLC</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>18427705.727419</v>
+      </c>
+      <c r="G193" t="n">
+        <v>35974083.0778045</v>
+      </c>
+      <c r="H193" t="n">
+        <v>391022642.1500489</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="J193" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="K193" t="n">
+        <v>219394.2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1000857</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>POET BIOREFINING GLENVILLE LLC</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>Scenario4Worst</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>51699029.22124501</v>
-      </c>
-      <c r="G55" t="n">
-        <v>31223822.49721743</v>
-      </c>
-      <c r="H55" t="n">
-        <v>339389374.9697547</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1568039.200904636</v>
-      </c>
-      <c r="J55" t="n">
-        <v>104000.2</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="F194" t="n">
+        <v>38234589.77037976</v>
+      </c>
+      <c r="G194" t="n">
+        <v>17498476.90598255</v>
+      </c>
+      <c r="H194" t="n">
+        <v>190200835.9345929</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1159660.761402186</v>
+      </c>
+      <c r="J194" t="n">
+        <v>76914.5</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1000872</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>GUARDIAN ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>91773007.26130551</v>
+      </c>
+      <c r="G195" t="n">
+        <v>42000917.43624775</v>
+      </c>
+      <c r="H195" t="n">
+        <v>456531711.2635626</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2783488.880512627</v>
+      </c>
+      <c r="J195" t="n">
+        <v>184614.9</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1001143</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>CHIPPEWA VALLEY ETHANOL COMPANY</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>36544544.22154194</v>
+      </c>
+      <c r="G196" t="n">
+        <v>16725009.1328483</v>
+      </c>
+      <c r="H196" t="n">
+        <v>181793577.5309598</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1108401.430002534</v>
+      </c>
+      <c r="J196" t="n">
+        <v>73724.49999999999</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1001995</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>SAPPI CLOQUET LLC</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>57297732.67127626</v>
+      </c>
+      <c r="G197" t="n">
+        <v>34605180.43317065</v>
+      </c>
+      <c r="H197" t="n">
+        <v>376143265.5779419</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1737848.704412323</v>
+      </c>
+      <c r="J197" t="n">
+        <v>116231.5</v>
+      </c>
+      <c r="K197" t="n">
+        <v>230299.4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1002173</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>GRANITE FALLS ENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>39839245.01456369</v>
+      </c>
+      <c r="G198" t="n">
+        <v>18232864.87512376</v>
+      </c>
+      <c r="H198" t="n">
+        <v>198183313.8600409</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1208330.192235205</v>
+      </c>
+      <c r="J198" t="n">
+        <v>80142.5</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1002177</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DENCO II, LLC</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>19665894.41772472</v>
+      </c>
+      <c r="G199" t="n">
+        <v>9000311.010807253</v>
+      </c>
+      <c r="H199" t="n">
+        <v>97829467.50877449</v>
+      </c>
+      <c r="I199" t="n">
+        <v>596469.4856431081</v>
+      </c>
+      <c r="J199" t="n">
+        <v>39582.2</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1002950</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Greenfield Global Winnebago LLC</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>36047426.77677366</v>
+      </c>
+      <c r="G200" t="n">
+        <v>16497497.91384268</v>
+      </c>
+      <c r="H200" t="n">
+        <v>179320629.49829</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1093323.784395024</v>
+      </c>
+      <c r="J200" t="n">
+        <v>72514.7</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1003837</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>BUSHMILLS ETHANOL INC.</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>56215179.29184188</v>
+      </c>
+      <c r="G201" t="n">
+        <v>25727489.75499714</v>
+      </c>
+      <c r="H201" t="n">
+        <v>279646627.771708</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1705014.700339238</v>
+      </c>
+      <c r="J201" t="n">
+        <v>113085.1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1.455191522836685e-11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1003907</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>HEARTLAND CORN PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>99204827.84110689</v>
+      </c>
+      <c r="G202" t="n">
+        <v>45402171.15875548</v>
+      </c>
+      <c r="H202" t="n">
+        <v>493501860.4212552</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3008897.09762533</v>
+      </c>
+      <c r="J202" t="n">
+        <v>199565.1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1004230</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Preston, LLC</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>38615521.40409047</v>
+      </c>
+      <c r="G203" t="n">
+        <v>17672814.42170526</v>
+      </c>
+      <c r="H203" t="n">
+        <v>192095808.931579</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1171214.474180173</v>
+      </c>
+      <c r="J203" t="n">
+        <v>77680.8</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>GREEN PLAINS OTTER TAIL LLC</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>43378235.60142688</v>
+      </c>
+      <c r="G204" t="n">
+        <v>19852522.50520744</v>
+      </c>
+      <c r="H204" t="n">
+        <v>215788288.1000809</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1315668.300037693</v>
+      </c>
+      <c r="J204" t="n">
+        <v>87261.70000000001</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1005020</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Poet Biorefining Lake Crystal, LLC</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>40572157.66365276</v>
+      </c>
+      <c r="G205" t="n">
+        <v>18568290.34042122</v>
+      </c>
+      <c r="H205" t="n">
+        <v>201829242.8306655</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1230559.541256294</v>
+      </c>
+      <c r="J205" t="n">
+        <v>81703.7</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1005149</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>AL CORN CLEAN FUEL</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>96243075.689667</v>
+      </c>
+      <c r="G206" t="n">
+        <v>44046692.99266399</v>
+      </c>
+      <c r="H206" t="n">
+        <v>478768402.0941738</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2919066.716924237</v>
+      </c>
+      <c r="J206" t="n">
+        <v>193607.1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1005526</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Green Plains Fairmont LLC</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>79292090.23938014</v>
+      </c>
+      <c r="G207" t="n">
+        <v>36288889.67329168</v>
+      </c>
+      <c r="H207" t="n">
+        <v>394444452.9705618</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2404940.82171127</v>
+      </c>
+      <c r="J207" t="n">
+        <v>159507.7</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1005586</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>HIGHWATER ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>40568796.45085996</v>
+      </c>
+      <c r="G208" t="n">
+        <v>18566752.04473703</v>
+      </c>
+      <c r="H208" t="n">
+        <v>201812522.2254025</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1230457.595175273</v>
+      </c>
+      <c r="J208" t="n">
+        <v>81610.09999999999</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1005751</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - E GRAND FORKS</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>22929967.69409367</v>
+      </c>
+      <c r="G209" t="n">
+        <v>12404724.18994071</v>
+      </c>
+      <c r="H209" t="n">
+        <v>134833958.5863121</v>
+      </c>
+      <c r="I209" t="n">
+        <v>695469.3107668745</v>
+      </c>
+      <c r="J209" t="n">
+        <v>64055.59999999999</v>
+      </c>
+      <c r="K209" t="n">
+        <v>5356.100000000006</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1005929</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>HERON LAKE BIOENERGY LLC</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>39375495.67215379</v>
+      </c>
+      <c r="G210" t="n">
+        <v>18020624.93199741</v>
+      </c>
+      <c r="H210" t="n">
+        <v>195876357.9564936</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1194264.606106295</v>
+      </c>
+      <c r="J210" t="n">
+        <v>79209.59999999999</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1006354</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - CROOKSTON</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>70400331.31700496</v>
+      </c>
+      <c r="G211" t="n">
+        <v>38085386.97125321</v>
+      </c>
+      <c r="H211" t="n">
+        <v>413971597.5136219</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2135252.45879036</v>
+      </c>
+      <c r="J211" t="n">
+        <v>234600.5</v>
+      </c>
+      <c r="K211" t="n">
+        <v>16364.79999999999</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1006877</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>AMERICAN CRYSTAL SUGAR - MOORHEAD</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>70096873.02220142</v>
+      </c>
+      <c r="G212" t="n">
+        <v>37921221.17301019</v>
+      </c>
+      <c r="H212" t="n">
+        <v>412187186.6631542</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2126048.523837243</v>
+      </c>
+      <c r="J212" t="n">
+        <v>232044</v>
+      </c>
+      <c r="K212" t="n">
+        <v>13719.69999999998</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1006946</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>VALERO WELCOME PLANT</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>93763068.08504824</v>
+      </c>
+      <c r="G213" t="n">
+        <v>42911690.47121152</v>
+      </c>
+      <c r="H213" t="n">
+        <v>466431418.1653426</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2843847.719562759</v>
+      </c>
+      <c r="J213" t="n">
+        <v>188618.2</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1006988</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>WestRock MN Corporation</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>31156608.59665342</v>
+      </c>
+      <c r="G214" t="n">
+        <v>11568665.38969543</v>
+      </c>
+      <c r="H214" t="n">
+        <v>125746362.9314721</v>
+      </c>
+      <c r="I214" t="n">
+        <v>944984.5457972108</v>
+      </c>
+      <c r="J214" t="n">
+        <v>62676.10000000001</v>
+      </c>
+      <c r="K214" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1007098</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>SOUTHERN MINNESOTA BEET SUGAR COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>33718447.44121516</v>
+      </c>
+      <c r="G215" t="n">
+        <v>18241109.02384848</v>
+      </c>
+      <c r="H215" t="n">
+        <v>198272924.1722661</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1022685.496766369</v>
+      </c>
+      <c r="J215" t="n">
+        <v>81584.10000000001</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1225.899999999994</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1007830</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Poet Bioprocessing-Bingham Lake</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>26474624.26662043</v>
+      </c>
+      <c r="G216" t="n">
+        <v>12116400.46633673</v>
+      </c>
+      <c r="H216" t="n">
+        <v>131700005.0688775</v>
+      </c>
+      <c r="I216" t="n">
+        <v>802979.2687523558</v>
+      </c>
+      <c r="J216" t="n">
+        <v>53257.6</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1007994</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>BOISE WHITE PAPER LLC</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>61425685.75806334</v>
+      </c>
+      <c r="G217" t="n">
+        <v>37098273.17398589</v>
+      </c>
+      <c r="H217" t="n">
+        <v>403242099.7172379</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1863050.131926121</v>
+      </c>
+      <c r="J217" t="n">
+        <v>123566.8</v>
+      </c>
+      <c r="K217" t="n">
         <v>219394.2</v>
       </c>
     </row>
